--- a/excelteste/retorno.xlsx
+++ b/excelteste/retorno.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,90 +478,108 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26669</v>
+        <v>2371</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08/12/2020</t>
+          <t>24/04/2019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>235874.0026945/2020</t>
+          <t>235874.0002427/2019</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>07.969.138/0001-42</t>
+          <t>02.216.998/0001-91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Desenvolvimento Humano</t>
+          <t>Associação de Pais e Amigos dos excepcionais de Itapoá</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Concessão</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Concluído em 09/09/2020</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NÃO SEI O QUE FAZER - ATA É DOC DE INTERVENÇÃO DA FEDERAÇÃO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26663</v>
+        <v>10550</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>08/12/2020</t>
+          <t>07/02/2020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>235874.0026939/2020</t>
+          <t>235874.0010919/2020</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00.914.536/0001-12</t>
+          <t>16.515.371/0001-46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Núcleo de Convivência Menino Jesus</t>
+          <t>LAR DONA PAULA DA SOCIEDADE DE SÃO VICENTE DE PAULO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Concessão</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Concluído em 22/02/2016</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>26661</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11/12/2020</t>
+          <t>06/04/2020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>235874.0026937/2020</t>
+          <t>71000.055792/2020-50</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>71.864.805/0001-21</t>
+          <t>06.058.863/0001-04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SERVICO DE OBRAS SOCIAIS</t>
+          <t>ASSOCIAÇÃO FILANTRÓPICA NOVA ESPERANÇA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -569,31 +587,39 @@
           <t>Renovação</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Não Cadastrado</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26495</v>
+        <v>16259</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>04/12/2020</t>
+          <t>25/05/2020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>235874.0026771/2020</t>
+          <t>235874.0016618/2020</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.289.889/0001-49</t>
+          <t>02.841.395/0001-80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>INSTITUTO PATER DE EDUCACAO E CULTURA</t>
+          <t xml:space="preserve">Associação de Pais e Amigos dos Excepcionais de Madre de Deus de Minas </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -601,223 +627,281 @@
           <t>Renovação</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Concluído em 02/01/2017</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26406</v>
+        <v>16525</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>03/12/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>235874.0026682/2020</t>
+          <t>235874.0016880/2020</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>77.208.205/0001-91</t>
+          <t>01.928.591/0001-24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ASSOC DE PAES E AMIGOS DOS EXCEPCIONAIS DE N ESPERANCA</t>
+          <t>ASSOCIACAO DE ASSISTENCIA A CRIANCA SAO VICENTE DE PAULO</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Renovação</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Não Cadastrado</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>26368</v>
+        <v>16884</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>02/12/2020</t>
+          <t>12/06/2020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>235874.0026644/2020</t>
+          <t>235874.0017237/2020</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>77.130.953/0001-07</t>
+          <t>52.051.273/0001-69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ASSOCIAÇÃO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE PATO BRANCO</t>
+          <t xml:space="preserve">Associação Filantrópica de Marília </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Renovação</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Concluído em 29/01/2016</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26338</v>
+        <v>17563</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>03/12/2020</t>
+          <t>24/06/2020</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>235874.0026614/2020</t>
+          <t>235874.0017915/2020</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>02.737.853/0001-36</t>
+          <t>53.308.953/0001-88</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>INSTITUTO MOVIVE</t>
+          <t>INSTITUTO COROADOS DE APRENDIZAGEM E ESTAGIO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Renovação</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Concluído em 31/07/2015</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26334</v>
+        <v>17667</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>09/12/2020</t>
+          <t>26/06/2020</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>235874.0026610/2020</t>
+          <t>235874.0018019/2020</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.688.390/0001-90</t>
+          <t>59.857.490/0001-90</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Associação de Pais e Amigos dos Excepcionais de Novo Hamburgo</t>
+          <t>COMUNIDADE SAO FRANCISCO DE ASSIS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Renovação</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Concluído em 29/11/2018</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>26330</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>02/12/2020</t>
+          <t>09/07/2020</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>235874.0026606/2020</t>
+          <t>71000.056608/2020-99</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44.041.218/0001-60</t>
+          <t>30.100.499/0001-70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Obra Kolping do Brasil </t>
+          <t>ASSOCIAÇÃO PESTALOZZI DE NITERÓI</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Renovação</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Concluído em 25/11/2016</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26306</v>
+        <v>18472</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>16/07/2020</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>235874.0026582/2020</t>
+          <t>235874.0018834/2020</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>57.745.291/0001-64</t>
+          <t>07.029.546/0001-14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NURAP - NUCLEO DE APRENDIZAGEM PROFISSIONAL E ASSISTENCIA SOCIAL</t>
+          <t>ASSOCIACAO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE FERRAZ DE VASCONCELOS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Renovação</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Concluído em 06/07/2017</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>26243</v>
+        <v>18500</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>07/12/2020</t>
+          <t>17/07/2020</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>235874.0026519/2020</t>
+          <t>235874.0018862/2020</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>02.181.560/0001-15</t>
+          <t>17.807.751/0001-17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ASSOCIACAO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE ENEAS MARQUES</t>
+          <t>ASSOCIAÇÃO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE SACRAMENTO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -825,31 +909,39 @@
           <t>Renovação</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Concluído em 22/03/2016</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>26113</v>
+        <v>19290</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>27/07/2020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>235874.0026389/2020</t>
+          <t>235874.0019603/2020</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>02.568.257/0001-70</t>
+          <t>60.931.847/0001-11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Associação de Pais e Amigos dos Excepcionais</t>
+          <t>Instituto Cristóvão Colombo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -857,95 +949,121 @@
           <t>Renovação</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Concluído em 03/07/2015</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>26106</v>
+        <v>19746</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>29/11/2020</t>
+          <t>31/07/2020</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>235874.0026382/2020</t>
+          <t>235874.0020058/2020</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13.260.697/0001-81</t>
+          <t>08.908.965/0001-99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">RECANTO DE CAMPOS NOVOS PAULISTA </t>
+          <t>INSTITUTO DE ESPORTE E CULTURA DIAMANTES DA BAHIA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Renovação</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Não Cadastrado</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>26044</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>26/11/2020</t>
+          <t>02/08/2020</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>235874.0026320/2020</t>
+          <t>71000.056619/2020-79</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>03.637.198/0001-07</t>
+          <t>00.001.297/0001-00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ASEVI - ACAO SOCIAL ESPERANCA E VIDA</t>
+          <t>CASA DE APOIO E ASSISTÊNCIA SOCIAL SANTA LUZIA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Concessão</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Não Cadastrado</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>25966</v>
+        <v>18258</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27/11/2020</t>
+          <t>03/08/2020</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>235874.0026242/2020</t>
+          <t>235874.0018621/2020</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>66.490.715/0001-88</t>
+          <t>43.765.015/0001-53</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SOCIEDADE CIVIL PROJETO CORAGEM DE DOIS CÓRREGOS</t>
+          <t>Lar da Velhice e Assistência Social</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -953,63 +1071,79 @@
           <t>Renovação</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Concluído em 18/06/2015</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>25734</v>
+        <v>15456</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20/11/2020</t>
+          <t>06/08/2020</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>235874.0026011/2020</t>
+          <t>235874.0015816/2020</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>54.122.031/0001-44</t>
+          <t>44.679.207/0001-00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LAR IRMA TEREZINHA ASSOCIACAO DE ASSISTENCIA DO IDOSO</t>
+          <t>INSTITUTO SALESIANO DOM BOSCO</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Renovação</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Concluído em 30/07/2015</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DILIGÊNCIA E-MAIL </t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>25264</v>
+        <v>20492</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>02/12/2020</t>
+          <t>13/08/2020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>235874.0025545/2020</t>
+          <t>235874.0020804/2020</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>00.417.902/0001-28</t>
+          <t>80.894.660/0001-00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aldeia Movimento Pró Cultura</t>
+          <t xml:space="preserve">ASS DE PAIS E AMIGOS DOS EXCEPCIONAIS DE BORRAZOPOLIS </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1017,31 +1151,39 @@
           <t>Renovação</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Concluído em 28/09/2020</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ENTRAR CONTATO TELEFONE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>25209</v>
+        <v>20677</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11/11/2020</t>
+          <t>17/08/2020</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>235874.0025490/2020</t>
+          <t>235874.0020989/2020</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>17.506.072/0001-08</t>
+          <t>11.064.550/0001-90</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ASSOCIAÇÃO AS SEMPRE VIVAS</t>
+          <t>ESPAÇO MÚLTIPLO ORLA – ARTE, CULTURA, SAÚDE E INCLUSÃO SOCIAL</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1049,31 +1191,39 @@
           <t>Renovação</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Concluído em 01/06/2017</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ANÁLISE INICIADA</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>24878</v>
+        <v>20691</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>04/11/2020</t>
+          <t>18/08/2020</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>235874.0025157/2020</t>
+          <t>235874.0021003/2020</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>07.253.424/0001-07</t>
+          <t>58.251.315/0001-91</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ASSOCIACAO RAIO DE SOL,DE ATIVIDADES SOCIAIS, EDUCACIONAIS,ESPORTIVAS E AMBIENTAIS</t>
+          <t>congregação santista de surdos</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1081,31 +1231,39 @@
           <t>Concessão</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Concluído em 02/09/2019</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>24717</v>
+        <v>20709</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>02/11/2020</t>
+          <t>18/08/2020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>235874.0024996/2020</t>
+          <t>235874.0021021/2020</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>01.812.911/0001-86</t>
+          <t>18.129.747/0001-00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Comunidade Terapêutica Fazenda de Recuperação Novo Caminho</t>
+          <t>Associação Tatame do Bem</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1113,31 +1271,39 @@
           <t>Concessão</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Concluído em 25/06/2019</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>24635</v>
+        <v>20845</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>28/10/2020</t>
+          <t>19/08/2020</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>235874.0024914/2020</t>
+          <t>235874.0021158/2020</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>17.909.375/0001-71</t>
+          <t>20.173.475/0001-97</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>S O S DE MUZAMBINHO</t>
+          <t>ONG VIVA MUNDAÚ</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1145,63 +1311,79 @@
           <t>Concessão</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Concluído em 30/07/2020</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24633</v>
+        <v>20790</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>28/10/2020</t>
+          <t>19/08/2020</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>235874.0024912/2020</t>
+          <t>235874.0021102/2020</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>05.673.131/0001-53</t>
+          <t>50.421.981/0001-19</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>APAE ASSOCIACAO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE SANTO ANTONIO DO LESTE</t>
+          <t>APAM- Associação de Proteção e Assistência ao Menor</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Concessão</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Concluído em 04/06/2018</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>24610</v>
+        <v>20805</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>03/12/2020</t>
+          <t>19/08/2020</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>235874.0024889/2020</t>
+          <t>235874.0021117/2020</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>80.057.755/0001-61</t>
+          <t>26.220.376/0001-03</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>APAE</t>
+          <t>ASSOCIACAO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE MATIPO</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1209,63 +1391,79 @@
           <t>Renovação</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Concluído em 23/05/2017</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24608</v>
+        <v>20817</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>28/10/2020</t>
+          <t>19/08/2020</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>235874.0024887/2020</t>
+          <t>235874.0021129/2020</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>44.637.601/0001-85</t>
+          <t>77.846.434/0001-31</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Recanto dos Velhinhos de Valinhos</t>
+          <t>LAR DOS IDOSOS PE. JOSE MONTENEGRO</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Renovação</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Concluído em 21/10/2014</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24563</v>
+        <v>20819</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>27/10/2020</t>
+          <t>19/08/2020</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>235874.0024842/2020</t>
+          <t>235874.0021131/2020</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>65.709.669/0001-00</t>
+          <t>05.875.060/0001-71</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LAR MARIA JOSE DE JESUS</t>
+          <t>INSTITUTO PILAR</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1273,95 +1471,119 @@
           <t>Renovação</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Concluído em 03/07/2015</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>24233</v>
+        <v>20842</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>19/08/2020</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>235874.0024514/2020</t>
+          <t>235874.0021155/2020</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>02.624.796/0001-89</t>
+          <t>75.447.995/0001-32</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CENTRO DE ASSISTENCIA SOCIAL EBENEZER</t>
+          <t>Associação de Pais e Amigos dos Excepcionais de Fraiburgo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Concessão</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>24047</v>
+        <v>20881</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>235874.0024330/2020</t>
+          <t>235874.0021194/2020</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>07.979.270/0001-35</t>
+          <t>03.508.076/0001-10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>INSTITUTO CEASAMINAS</t>
+          <t>Associação Bneficente ABID</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Concessão</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Concluído em 29/07/2015</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>23425</v>
+        <v>20892</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13/11/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>235874.0023729/2020</t>
+          <t>235874.0021205/2020</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>48.447.502/0001-91</t>
+          <t>47.521.232/0001-59</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Centro de Ação Social Nossa Senhora D`Aparecida</t>
+          <t>CASA DE APOIO A CRIANÇA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1369,31 +1591,39 @@
           <t>Renovação</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Concluído em 13/11/2017</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>23059</v>
+        <v>20880</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>28/09/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>235874.0023363/2020</t>
+          <t>235874.0021193/2020</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>88.794.664/0001-10</t>
+          <t>00.350.660/0001-00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>clinica publica ser - grupo de atendimento interdisciplinar aos portadores de deficiencia mental e conduta tipica</t>
+          <t>OBRA SOCIAL SOCIAL SANTA ISABEL</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1401,159 +1631,199 @@
           <t>Renovação</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Concluído em 11/04/2016</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>17756</v>
+        <v>20850</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>04/12/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>235874.0018109/2020</t>
+          <t>235874.0021163/2020</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>88.326.277/0001-50</t>
+          <t>48.398.614/0001-08</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Associação Pestalozzi de Canoas</t>
+          <t>ASSOCIACAO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE APARECIDA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Concessão</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16834</v>
+        <v>20196</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10/06/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>235874.0017187/2020</t>
+          <t>235874.0020508/2020</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>62.713.680/0001-48</t>
+          <t>10.948.599/0001-43</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sociedade Beneficente Casa da Esperança</t>
+          <t>ASSOCIAÇÃO MISSIONÁRIA AMIGOS DA MISERICÓRDIA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Renovação</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Concluído em 06/08/2020</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16773</v>
+        <v>19671</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>09/06/2020</t>
+          <t>20/08/2020</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>235874.0017126/2020</t>
+          <t>235874.0019983/2020</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>45.485.737/0001-80</t>
+          <t>00.433.489/0001-95</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SOS- SERVIÇO DE OBRAS SOCIAIS DE BOITUVA</t>
+          <t>ASSOCIAÇÃO BENEFICENTE IRMÃ CECÍLIA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Renovação</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Concluído em 14/08/2014</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16487</v>
+        <v>20054</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>04/11/2020</t>
+          <t>21/08/2020</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>235874.0016842/2020</t>
+          <t>235874.0020366/2020</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>07.882.768/0001-85</t>
+          <t>22.326.623/0001-91</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>INSTITUTO ARAXA DE INOVACAO SOCIAL</t>
+          <t>INSTITUTO NOSSA SENHORA DE FATIMA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Concessão</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Concluído em 24/07/2020</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11129</v>
+        <v>2042</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10/03/2020</t>
+          <t>21/08/2020</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>235874.0011490/2020</t>
+          <t>235874.0002099/2019</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>23.956.941/0001-07</t>
+          <t>08.279.653/0001-63</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ASSOCIACAO MOVER CAMINHOS</t>
+          <t>COMUNIDADE SOLIDARIA DA AMIZADE</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1561,31 +1831,39 @@
           <t>Concessão</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Não Cadastrado</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>8971</v>
+        <v>20942</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>21/08/2020</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>235874.0008986/2019</t>
+          <t>235874.0021252/2020</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>00.343.941/0001-28</t>
+          <t>89.287.007/0001-40</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>VIVA RIO</t>
+          <t xml:space="preserve">APAE - Associação de Pais e Amigos dos Excepcionais </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1593,159 +1871,199 @@
           <t>Renovação</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Concluído em 30/12/2019</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5911</v>
+        <v>20917</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>21/10/2019</t>
+          <t>25/08/2020</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>235874.0005979/2019</t>
+          <t>235874.0021230/2020</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>07.013.518/0001-09</t>
+          <t>76.718.592/0001-43</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ASSOCIACAO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE BODOQUENA</t>
+          <t>REDE FEMININA DE COMBATE AO CANCER - REGIONAL DE MARINGA - PARANA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Concessão</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Concluído em 21/05/2015</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5572</v>
+        <v>21426</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>13/08/2019</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>235874.0005643/2019</t>
+          <t>235874.0021730/2020</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>25.651.357/0001-60</t>
+          <t>29.285.921/0001-20</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LAR SÃO VICENTE DE PAULO DE CONCEIÇÃO DOS OUROS</t>
+          <t>ASSOCIAÇÃO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE VALENÇA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Concessão</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Concluído em 29/05/2017</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5120</v>
+        <v>21415</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>29/07/2019</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>235874.0005198/2019</t>
+          <t>235874.0021719/2020</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>00.237.354/0001-54</t>
+          <t>51.827.491/0001-80</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cantinho do vovo</t>
+          <t>Lar e Internato Otoniel de Camargo</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Concessão</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Concluído em 25/07/2015</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2585</v>
+        <v>21421</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>02/05/2019</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>235874.0002641/2019</t>
+          <t>235874.0021725/2020</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>07.168.874/0001-00</t>
+          <t>07.568.758/0001-70</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">INSTITUTO MED LIFE </t>
+          <t>ASSOCIAÇÃO ANHUMAS QUERO-QUERO</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Concessão</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Concluído em 02/10/2019</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1286</v>
+        <v>21448</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07/03/2019</t>
+          <t>27/08/2020</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>235874.0001281/2019</t>
+          <t>235874.0021752/2020</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>24.417.305/0001-61</t>
+          <t>29.635.117/0001-23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Centro Dom Helder Camara de Estudos e Ação Social</t>
+          <t>Assistência Social Santo Antônio</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1753,8 +2071,2514 @@
           <t>Concessão</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Concluído em 03/04/2019</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>21558</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>28/08/2020</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>235874.0021862/2020</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>06.279.076/0001-84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Associação Jesus De Nazare</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Concluído em 20/12/2019</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>21719</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>31/08/2020</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>235874.0022023/2020</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>03.868.609/0001-75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ASILO SÃO VICENTE DE PAULO</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Concluído em 19/10/2017</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>21765</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>01/09/2020</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>235874.0022069/2020</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>01.181.142/0001-65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Associação Limeirense de Cuidado e Carinho</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Concluído em 15/06/2016</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>21688</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>04/09/2020</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>235874.0021992/2020</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14.989.581/0001-40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ASSOCIACAO PESTALOZZI DE COTRIGUACU</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Concluído em 07/10/2019</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>22261</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>10/09/2020</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>235874.0022565/2020</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>45.394.657/0001-19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>CENTRO VICENTINO NOSSA SENHORA DAS DORES</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Concluído em 10/04/2017</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>22255</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>10/09/2020</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>235874.0022559/2020</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>74.137.126/0001-49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ALDEIA DO FUTURO - ASSOCIACAO PARA MELHORIA DA CONDICAO DA POPULACAO CARENTE</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Concluído em 31/07/2015</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>22559</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>17/09/2020</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>235874.0022863/2020</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.484.879/0001-73</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO COMUNITÁRIA DE MOCOTO DE VÁRZEA ALEGRE</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>22610</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>18/09/2020</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>235874.0022914/2020</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>92.034.156/0001-01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>FUNDAÇÃO BENEFICENTE LUCAS ARAÚJO</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Concluído em 09/02/2015</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>02/10/2020</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>71000.055790/2020-61</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>02.401.835/0001-89</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO COMUNIDADE AUXILIADORA RECUPERANDO VIDAS</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Não Cadastrado</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>06/10/2020</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>71000.056618/2020-24</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>85.461.093/0001-04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO HOSPITALAR E EDUCACIONAL DE POMERODE</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Não Cadastrado</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>06/10/2020</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>71000.056621/2020-48</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>23.453.830/0001-70</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>INSTITUTO NACIONAL DE DESENVOLVIMENTO SOCIAL E HUMANO - INDSH</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Não Cadastrado</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>15155</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>26/10/2020</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>235874.0015516/2020</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>03.030.798/0001-02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE CORUMBA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Concluído em 23/03/2016</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>24675</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>29/10/2020</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>235874.0024954/2020</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>17.391.822/0001-43</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NUCLEO ASSISTENCIAL CAMINHOS PARA JESUS</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Concluído em 22/02/2016</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>24802</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>03/11/2020</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>235874.0025081/2020</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>90.479.908/0001-12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE NOVA PETRÓPOLIS</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Concluído em 27/04/2017</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>24860</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>04/11/2020</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>235874.0025139/2020</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>04.903.674/0001-57</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>IGES - INSTITUTO DE GESTAO SOCIAL DO TERCEIRO SETOR</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Concluído em 30/07/2015</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>24874</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>04/11/2020</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>235874.0025153/2020</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.339.643/0001-18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>CARITAS DIOCESANA DE JALES</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Concluído em 18/05/2020</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>24968</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>05/11/2020</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>235874.0025247/2020</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>60.333.853/0001-77</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>LAR ANALIA FRANCO DE SAO MANUEL</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Concluído em 15/09/2017</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>24967</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>05/11/2020</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>235874.0025246/2020</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>59.483.099/0001-72</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>CASA JOSE COLTRO</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Concluído em 03/07/2015</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>24965</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>05/11/2020</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>235874.0025244/2020</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>17.417.569/0001-50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Associação de Pais e Amigos dos Excepcionais de São Gonçalo do Sapucaí</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Concluído em 09/12/2016</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>24928</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>05/11/2020</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>235874.0025207/2020</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>01.053.806/0001-00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>PARA-D.V. - ASSOCIACAO PARA O APOIO E INTEGRACAO DO DEFICIENTE VISUAL</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Concluído em 26/07/2015</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>24944</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>05/11/2020</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>235874.0025223/2020</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>53.214.052/0001-27</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>LAR SAO VICENTE DE PAULO</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Concluído em 05/01/2015</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>24938</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>05/11/2020</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>235874.0025217/2020</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>89.556.831/0001-58</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>LAR DE SANTO ANTONIO DOS EXCEPCIONAIS</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Concluído em 23/02/2016</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>24964</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>05/11/2020</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>235874.0025243/2020</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>05.934.273/0001-27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>AMIGOS MAOS ABERTAS</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Concluído em 20/10/2016</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>24885</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>06/11/2020</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>235874.0025164/2020</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>00.211.504/0001-50</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>CASA DE APOIO A CRIANÇA CARENTE DE CONTAGEM</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Concluído em 05/12/2017</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>25013</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>06/11/2020</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>235874.0025292/2020</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13.054.502/0001-47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>CENTRO DE AMPARO E REABILITACAO CANAA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Não Cadastrado</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>25015</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>06/11/2020</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>235874.0025294/2020</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>17.221.615/0001-40</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ASSOCIACAO MINEIRA DE REABILITACAO</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Concluído em 22/02/2016</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>25017</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>06/11/2020</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>235874.0025296/2020</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>10.854.895/0001-85</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ESCOLA DE FUTEBOL PASSE CERTO</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Não Cadastrado</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>25018</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>06/11/2020</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>235874.0025297/2020</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>50.432.004/0001-17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>LAR SÃO VICENTE DE PAULO VILA VICENTINA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Concluído em 20/04/2017</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>06/11/2020</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>235874.0025301/2020</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>35.667.104/0001-39</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ASSOCIACAO DE ASSISTENCIA AO DEFICIENTE DE SANTA CRUZ</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>25114</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>09/11/2020</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>235874.0025393/2020</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>27.219.757/0001-27</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>CENTRO DE DEFESA DOS DIREITOS HUMANOS DE PETRÓPOLIS</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Concluído em 18/10/2017</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>25090</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>09/11/2020</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>235874.0025369/2020</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>02.845.773/0001-02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>OFICINA EDUCACIONAL DA CRIANÇA E DO ADOLESCENTE DE NOVO HORIZONTE</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Concluído em 03/06/2014</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>25084</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>09/11/2020</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>235874.0025363/2020</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>67.994.103/0001-95</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ASSOCIACAO DE PAIS E AMIGOS DA CRIANCA COM CANCER E HEM</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Concluído em 10/09/2020</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>25067</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>09/11/2020</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>235874.0025346/2020</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>44.490.464/0001-07</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ASSOCIACAO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE ITAPOLIS</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Concluído em 02/07/2015</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>24421</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>09/11/2020</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>235874.0024700/2020</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>78.028.289/0001-44</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>AÇÃO SOCIAL DIOCESANA BOM SAMARITANO PROCOPENSE</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Concluído em 31/07/2015</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>24919</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>10/11/2020</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>235874.0025198/2020</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>02.631.906/0001-30</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE ARAÇUAÍ</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Concluído em 17/02/2016</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>25196</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>11/11/2020</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>235874.0025477/2020</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>45.125.150/0001-60</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE JALES</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Concluído em 31/07/2015</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>25222</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>11/11/2020</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>235874.0025503/2020</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>23.367.576/0001-97</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>LAR SÃO VICENTE DE PAULO</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Concluído em 22/03/2016</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>25231</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>12/11/2020</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>235874.0025512/2020</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>47.060.173/0001-69</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>ASSOCIACAO DE PAIS E AMIGOS DOS EXCEPCIONAIS ORLANDIA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Concluído em 29/07/2014</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>25269</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>12/11/2020</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>235874.0025550/2020</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>87.298.188/0001-84</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APAE Associação de Pais e Amigos dos Excepcionais </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Concluído em 11/03/2015</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>25271</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>12/11/2020</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>235874.0025552/2020</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>80.889.744/0001-48</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO DE PAIS E AMIGOS DOS EXCEPCIONAIS DE PEABIRU</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Concluído em 04/12/2019</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>25298</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>13/11/2020</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>235874.0025579/2020</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>48.221.824/0001-18</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>ABRIGO DOS VELHINHOS FREDERICO OZANAM</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Concluído em 03/07/2015</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>25383</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>16/11/2020</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>235874.0025664/2020</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>19.084.458/0001-02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>CONSELHO PARTICULAR DE NEPOMUCENO S.S.V.P</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Concluído em 31/07/2015</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>25533</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>20/11/2020</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>235874.0025814/2020</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>07.778.949/0001-66</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Associação Refúgio</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Concluído em 14/02/2018</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>25947</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>25/11/2020</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>235874.0026223/2020</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>51.391.902/0001-37</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Abrigo de Idosos "Recanto do Vovô"</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Concluído em 27/01/2016</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>26/11/2020</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>71000.058467/2020-49</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>19.278.500/0001-18</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO DE PAIS, PROFISSIONAIS E AMIGOS DOS AUTISTAS DE BRUSQUE-SC E REGIÃO</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Não Cadastrado</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>26100</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>27/11/2020</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>235874.0026376/2020</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>05.851.906/0001-33</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO GRUPO ROSA E AMOR</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Concluído em 31/10/2014</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>27/11/2020</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>71000.058466/2020-02</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>00.641.541/0001-07</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>CRECHE TIA DOLORES</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Concluído em 22/02/2016</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>26218</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>30/11/2020</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>235874.0026494/2020</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>50.133.354/0001-82</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>LAR DO MENOR DE MAUÁ SOL DA ESPERANÇA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Concluído em 26/02/2016</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>26160</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>30/11/2020</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>235874.0026436/2020</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>84.955.665/0001-49</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cáritas Diocesana de Lages </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Concluído em 15/05/2015</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>26287</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>01/12/2020</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>235874.0026563/2020</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>46.927.042/0001-73</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>ASSOCIACAO DE SERVICO E ASSISTENCIA SOCIAL DE CAPIVARI-ASAS SP</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>26291</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>01/12/2020</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>235874.0026567/2020</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>55.749.592/0001-30</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO MIRIM SALGADENSE</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Concluído em 18/09/2014</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>26339</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>02/12/2020</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>235874.0026615/2020</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>30.654.511/0001-98</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>ASS DOS PAIS E AMIGOS DOS DEFIC FISICOS DE V REDONDA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Concluído em 30/07/2015</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>26356</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>02/12/2020</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>235874.0026632/2020</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>57.487.928/0001-60</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>FUNDAÇÃO EUFRATEN</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Concluído em 16/05/2016</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>26359</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>02/12/2020</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>235874.0026635/2020</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>03.234.702/0001-28</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO PRESBITERIANA DA GRAÇA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Concluído em 11/09/2020</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>02/12/2020</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>71000.058398/2020-73</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>46.731.121/0001-04</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>SERVIÇO ESPIRITA DE PROTEÇÃO À INFÂNCIA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Concluído em 09/05/2017</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>26374</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>02/12/2020</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>235874.0026650/2020</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>18.255.216/0001-63</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO FILANTROPICA DE ASSISTENCIA AO DEFICIENTE AUDITVO</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Concessão</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Concluído em 31/07/2015</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>02/12/2020</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>71000.059114/2020-66</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>12.641.072/0001-05</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>ASSOCIAÇÃO DE PAIS E AMIGOS  DOS EXCEPCIONAIS  - APAE DE MACAÍBA</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Concluído em 11/03/2020</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>03/12/2020</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>71000.059405/2020-54</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>22.389.787/0001-68</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>OBRAS SOCIAIS DE AUXÍLIO À INFÂNCIA E À MATERNIDADE MONSENHOR HORTA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Concluído em 24/01/2018</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>04/12/2020</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>71000.059408/2020-98</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>03.318.766/0001-07</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>JUVENTUDE CÍVICA POAENSE - JUCIP</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Concluído em 31/07/2015</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>26531</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>06/12/2020</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>235874.0026807/2020</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>03.114.293/0001-26</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Associação Voluntariado de Apoio à Oncologia - AVAO</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Concluído em 29/06/2015</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>26583</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>07/12/2020</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>235874.0026859/2020</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>10.580.349/0001-01</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Lar Acolhedor</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Concluído em 18/03/2016</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>26099</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>08/12/2020</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>235874.0026375/2020</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>02.276.026/0001-92</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>LAR SÃO VICENTE DE PAULO</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Renovação</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Concluído em 22/07/2015</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>NÃO ANALISADO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
